--- a/Resources/2019 Licensee Examination.xlsx
+++ b/Resources/2019 Licensee Examination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\DRE\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C02FC6-FD9D-45C6-AC4B-6F838775E69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE91AF55-EE66-4D98-B813-E1A38ECE481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="366" yWindow="366" windowWidth="9906" windowHeight="9546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,42 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Month</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
   </si>
   <si>
     <t>Licensee Brokers</t>
@@ -84,7 +51,7 @@
     <t>Examinations Sales</t>
   </si>
   <si>
-    <t>December</t>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -436,359 +403,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.47265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.3125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>131311</v>
+      </c>
+      <c r="D2" s="4">
+        <v>290543</v>
+      </c>
+      <c r="E2" s="4">
+        <v>421854</v>
+      </c>
+      <c r="F2" s="4">
+        <v>374</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1759</v>
+      </c>
+      <c r="H2" s="4">
+        <v>379</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>131455</v>
+      </c>
+      <c r="D3" s="4">
+        <v>291094</v>
+      </c>
+      <c r="E3" s="4">
+        <v>422549</v>
+      </c>
+      <c r="F3" s="4">
+        <v>383</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1744</v>
+      </c>
+      <c r="H3" s="4">
+        <v>372</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>131371</v>
+      </c>
+      <c r="D4" s="4">
+        <v>291351</v>
+      </c>
+      <c r="E4" s="4">
+        <v>422722</v>
+      </c>
+      <c r="F4" s="4">
+        <v>397</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2025</v>
+      </c>
+      <c r="H4" s="4">
+        <v>349</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>131389</v>
+      </c>
+      <c r="D5" s="4">
+        <v>291903</v>
+      </c>
+      <c r="E5" s="4">
+        <v>423292</v>
+      </c>
+      <c r="F5" s="4">
+        <v>425</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2011</v>
+      </c>
+      <c r="H5" s="4">
+        <v>325</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>131551</v>
+      </c>
+      <c r="D6" s="4">
+        <v>292313</v>
+      </c>
+      <c r="E6" s="4">
+        <v>423864</v>
+      </c>
+      <c r="F6" s="4">
+        <v>459</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2010</v>
+      </c>
+      <c r="H6" s="4">
+        <v>385</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>131442</v>
+      </c>
+      <c r="D7" s="4">
+        <v>292368</v>
+      </c>
+      <c r="E7" s="4">
+        <v>423810</v>
+      </c>
+      <c r="F7" s="4">
+        <v>394</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1814</v>
+      </c>
+      <c r="H7" s="4">
+        <v>450</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>131424</v>
+      </c>
+      <c r="D8" s="4">
+        <v>292743</v>
+      </c>
+      <c r="E8" s="4">
+        <v>424167</v>
+      </c>
+      <c r="F8" s="4">
+        <v>403</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1936</v>
+      </c>
+      <c r="H8" s="4">
+        <v>398</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>131457</v>
+      </c>
+      <c r="D9" s="4">
+        <v>293363</v>
+      </c>
+      <c r="E9" s="4">
+        <v>424820</v>
+      </c>
+      <c r="F9" s="4">
+        <v>490</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2250</v>
+      </c>
+      <c r="H9" s="4">
+        <v>440</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>131572</v>
+      </c>
+      <c r="D10" s="4">
+        <v>293605</v>
+      </c>
+      <c r="E10" s="4">
+        <v>425177</v>
+      </c>
+      <c r="F10" s="4">
+        <v>418</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1719</v>
+      </c>
+      <c r="H10" s="4">
+        <v>367</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>131521</v>
+      </c>
+      <c r="D11" s="4">
+        <v>293944</v>
+      </c>
+      <c r="E11" s="4">
+        <v>425465</v>
+      </c>
+      <c r="F11" s="4">
+        <v>302</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1776</v>
+      </c>
+      <c r="H11" s="4">
+        <v>363</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>2019</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>131315</v>
+      </c>
+      <c r="D12" s="4">
+        <v>294167</v>
+      </c>
+      <c r="E12" s="4">
+        <v>425482</v>
+      </c>
+      <c r="F12" s="4">
+        <v>304</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1548</v>
+      </c>
+      <c r="H12" s="4">
+        <v>369</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>131311</v>
-      </c>
-      <c r="C2" s="4">
-        <v>290543</v>
-      </c>
-      <c r="D2" s="4">
-        <v>421854</v>
-      </c>
-      <c r="E2" s="4">
-        <v>374</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1759</v>
-      </c>
-      <c r="G2" s="4">
-        <v>379</v>
-      </c>
-      <c r="H2" s="4">
-        <v>3414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>131455</v>
-      </c>
-      <c r="C3" s="4">
-        <v>291094</v>
-      </c>
-      <c r="D3" s="4">
-        <v>422549</v>
-      </c>
-      <c r="E3" s="4">
-        <v>383</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1744</v>
-      </c>
-      <c r="G3" s="4">
-        <v>372</v>
-      </c>
-      <c r="H3" s="4">
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>131371</v>
-      </c>
-      <c r="C4" s="4">
-        <v>291351</v>
-      </c>
-      <c r="D4" s="4">
-        <v>422722</v>
-      </c>
-      <c r="E4" s="4">
-        <v>397</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2025</v>
-      </c>
-      <c r="G4" s="4">
-        <v>349</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>131389</v>
-      </c>
-      <c r="C5" s="4">
-        <v>291903</v>
-      </c>
-      <c r="D5" s="4">
-        <v>423292</v>
-      </c>
-      <c r="E5" s="4">
-        <v>425</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2011</v>
-      </c>
-      <c r="G5" s="4">
-        <v>325</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>131551</v>
-      </c>
-      <c r="C6" s="4">
-        <v>292313</v>
-      </c>
-      <c r="D6" s="4">
-        <v>423864</v>
-      </c>
-      <c r="E6" s="4">
-        <v>459</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2010</v>
-      </c>
-      <c r="G6" s="4">
-        <v>385</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>131442</v>
-      </c>
-      <c r="C7" s="4">
-        <v>292368</v>
-      </c>
-      <c r="D7" s="4">
-        <v>423810</v>
-      </c>
-      <c r="E7" s="4">
-        <v>394</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1814</v>
-      </c>
-      <c r="G7" s="4">
-        <v>450</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>131424</v>
-      </c>
-      <c r="C8" s="4">
-        <v>292743</v>
-      </c>
-      <c r="D8" s="4">
-        <v>424167</v>
-      </c>
-      <c r="E8" s="4">
-        <v>403</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1936</v>
-      </c>
-      <c r="G8" s="4">
-        <v>398</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>131457</v>
-      </c>
-      <c r="C9" s="4">
-        <v>293363</v>
-      </c>
-      <c r="D9" s="4">
-        <v>424820</v>
-      </c>
-      <c r="E9" s="4">
-        <v>490</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2250</v>
-      </c>
-      <c r="G9" s="4">
-        <v>440</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>131572</v>
-      </c>
-      <c r="C10" s="4">
-        <v>293605</v>
-      </c>
-      <c r="D10" s="4">
-        <v>425177</v>
-      </c>
-      <c r="E10" s="4">
-        <v>418</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1719</v>
-      </c>
-      <c r="G10" s="4">
-        <v>367</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>131521</v>
-      </c>
-      <c r="C11" s="4">
-        <v>293944</v>
-      </c>
-      <c r="D11" s="4">
-        <v>425465</v>
-      </c>
-      <c r="E11" s="4">
-        <v>302</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1776</v>
-      </c>
-      <c r="G11" s="4">
-        <v>363</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>131315</v>
-      </c>
-      <c r="C12" s="4">
-        <v>294167</v>
-      </c>
-      <c r="D12" s="4">
-        <v>425482</v>
-      </c>
-      <c r="E12" s="4">
-        <v>304</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1548</v>
-      </c>
-      <c r="G12" s="4">
-        <v>369</v>
-      </c>
-      <c r="H12" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="C13" s="4">
         <v>131061</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>294100</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>425161</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>296</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>1471</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>326</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>2980</v>
       </c>
     </row>
